--- a/data/L1-STAPS.xlsx
+++ b/data/L1-STAPS.xlsx
@@ -8,19 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mr.robot/Desktop/stats/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184F675F-E380-564D-AD3B-000EDE464517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C044EB0C-B66A-C642-8E9B-C5AF7BE8AA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1740" yWindow="500" windowWidth="39140" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Feuille 1'!$N$2:$N$32</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Feuille 1'!$G$2:$G$32</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Feuille 1'!$J$2:$J$32</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Feuille 1'!$N$2:$N$32</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Feuille 1'!$N$2:$N$32</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Feuille 1'!$C$2:$C$32</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Feuille 1'!$H$2:$H$32</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -487,7 +501,7 @@
   <dimension ref="A1:AE34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2293,11 +2307,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE32">

--- a/data/L1-STAPS.xlsx
+++ b/data/L1-STAPS.xlsx
@@ -8,22 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mr.robot/Desktop/stats/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C044EB0C-B66A-C642-8E9B-C5AF7BE8AA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59948A9E-D27B-5542-B961-E84BC32B0CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="500" windowWidth="39140" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="2160" windowWidth="39140" windowHeight="17740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
+    <sheet name="Feuille 1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Feuille 1'!$N$2:$N$32</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Feuille 1'!$G$2:$G$32</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Feuille 1'!$J$2:$J$32</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Feuille 1'!$N$2:$N$32</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Feuille 1'!$N$2:$N$32</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Feuille 1'!$C$2:$C$32</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Feuille 1'!$H$2:$H$32</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -42,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="77">
   <si>
     <t>Sexe</t>
   </si>
@@ -192,13 +184,94 @@
   </si>
   <si>
     <t>Identifiant</t>
+  </si>
+  <si>
+    <t>RAPPORT DÉTAILLÉ</t>
+  </si>
+  <si>
+    <t>Statistiques de la régression</t>
+  </si>
+  <si>
+    <t>Coefficient de détermination multiple</t>
+  </si>
+  <si>
+    <t>Coefficient de détermination R^2</t>
+  </si>
+  <si>
+    <t>Erreur-type</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANALYSE DE VARIANCE</t>
+  </si>
+  <si>
+    <t>Régression</t>
+  </si>
+  <si>
+    <t>Résidus</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Constante</t>
+  </si>
+  <si>
+    <t>Degré de liberté</t>
+  </si>
+  <si>
+    <t>Somme des carrés</t>
+  </si>
+  <si>
+    <t>Moyenne des carrés</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Valeur critique de F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>Statistique t</t>
+  </si>
+  <si>
+    <t>Probabilité</t>
+  </si>
+  <si>
+    <t>Limite inférieure pour seuil de confiance = 95%</t>
+  </si>
+  <si>
+    <t>Limite supérieure pour seuil de confiance = 95%</t>
+  </si>
+  <si>
+    <t>Limite inférieure pour seuil de confiance =  95,0%</t>
+  </si>
+  <si>
+    <t>Limite supérieure pour seuil de confiance =  95,0%</t>
+  </si>
+  <si>
+    <t>Variable X 1</t>
+  </si>
+  <si>
+    <t>ANALYSE DES RÉSIDUS</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Prévisions pour Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -243,6 +316,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -252,7 +338,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -260,11 +346,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -280,6 +386,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -295,6 +410,1020 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Variable X 1 Graphique des résidus</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Feuille 1'!$K$2:$K$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$25:$C$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-7.4407536284969211</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.8004899043084066</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2193123025502786</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.278718923126263</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-18.140423973261292</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5196419577858222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.16022618011992762</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.1008195595439787</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.5001602490728416</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2589167162675707</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1797078888329366</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.8796987317430478</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4800375440684661</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5394441646445074</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.85957602673873623</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.7806876974497499</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.6186529920791202</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95858706103200575</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-6.7608854905911215</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.179707888832937</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.160226180119956</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.4209514216381791</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.539444164644479</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-6.0414129389679943</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.0216107321093375</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.8793782335973646</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.539444164644479</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.5196419577858222</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.4209514216382075</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.17970788883290822</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.8793782335973646</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-73DB-234E-AA3C-94AF7E4FCC9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="99886383"/>
+        <c:axId val="99888031"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="99886383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Variable X 1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99888031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="99888031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Résidus</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99886383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Variable X 1 Courbe de régression</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Feuille 1'!$K$2:$K$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Feuille 1'!$N$2:$N$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>34.999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49.999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45.000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45.000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34.999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40.000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44.999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9A87-D842-B4EB-A2F74AECA492}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Prévisions pour Y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Feuille 1'!$K$2:$K$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$25:$B$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>42.440753628496864</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.800489904308407</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.78068769744975</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.721281076873765</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.140423973261292</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.480358042214178</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.160226180119956</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.100819559543979</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.500160249072842</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.741083283732429</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44.820292111167063</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47.879698731743048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>46.519962455931505</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43.460555835355521</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44.140423973261292</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42.78068769744975</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39.38134700792088</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39.041412938967994</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41.760885490591093</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44.820292111167063</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45.160226180119956</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41.420951421638208</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43.460555835355521</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>39.041412938967994</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>38.021610732109338</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43.120621766402635</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43.460555835355521</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44.480358042214178</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41.420951421638208</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44.820292111167063</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43.120621766402635</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9A87-D842-B4EB-A2F74AECA492}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="99943007"/>
+        <c:axId val="99944655"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="99943007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Variable X 1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99944655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="99944655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99943007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61B35235-8D18-9DF5-ABF1-CA0DEF518CF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50ADBD07-BA31-895E-1172-8DC67CAAA884}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -494,14 +1623,603 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CEE88AA-53E9-0A41-B3C2-9C03B7AC0A49}">
+  <dimension ref="A1:I55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.37465894724222015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.14036932674864869</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.11072688973998139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="7">
+        <v>5.8638917904454972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7">
+        <v>162.82841902843268</v>
+      </c>
+      <c r="D12" s="7">
+        <v>162.82841902843268</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4.7354178979145827</v>
+      </c>
+      <c r="F12" s="7">
+        <v>3.7837560868554582E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="7">
+        <v>29</v>
+      </c>
+      <c r="C13" s="7">
+        <v>997.17158097156869</v>
+      </c>
+      <c r="D13" s="7">
+        <v>34.385226930054095</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="8">
+        <v>30</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1160.0000000000014</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="7">
+        <v>25.104116111899646</v>
+      </c>
+      <c r="C17" s="7">
+        <v>8.2909915777204812</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3.0278786169991205</v>
+      </c>
+      <c r="E17" s="7">
+        <v>5.1290212442287077E-3</v>
+      </c>
+      <c r="F17" s="7">
+        <v>8.1471343744731186</v>
+      </c>
+      <c r="G17" s="7">
+        <v>42.061097849326174</v>
+      </c>
+      <c r="H17" s="7">
+        <v>8.1471343744731186</v>
+      </c>
+      <c r="I17" s="7">
+        <v>42.061097849326174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0.33993406895288658</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.15621241161038016</v>
+      </c>
+      <c r="D18" s="8">
+        <v>2.1761015366739165</v>
+      </c>
+      <c r="E18" s="8">
+        <v>3.7837560868554568E-2</v>
+      </c>
+      <c r="F18" s="8">
+        <v>2.0443814258301996E-2</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.65942432364747117</v>
+      </c>
+      <c r="H18" s="8">
+        <v>2.0443814258301996E-2</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0.65942432364747117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="7">
+        <v>1</v>
+      </c>
+      <c r="B25" s="7">
+        <v>42.440753628496864</v>
+      </c>
+      <c r="C25" s="7">
+        <v>-7.4407536284969211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="7">
+        <v>2</v>
+      </c>
+      <c r="B26" s="7">
+        <v>43.800489904308407</v>
+      </c>
+      <c r="C26" s="7">
+        <v>-3.8004899043084066</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="7">
+        <v>3</v>
+      </c>
+      <c r="B27" s="7">
+        <v>42.78068769744975</v>
+      </c>
+      <c r="C27" s="7">
+        <v>2.2193123025502786</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="7">
+        <v>4</v>
+      </c>
+      <c r="B28" s="7">
+        <v>39.721281076873765</v>
+      </c>
+      <c r="C28" s="7">
+        <v>5.278718923126263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="7">
+        <v>5</v>
+      </c>
+      <c r="B29" s="7">
+        <v>44.140423973261292</v>
+      </c>
+      <c r="C29" s="7">
+        <v>-18.140423973261292</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="7">
+        <v>6</v>
+      </c>
+      <c r="B30" s="7">
+        <v>44.480358042214178</v>
+      </c>
+      <c r="C30" s="7">
+        <v>5.5196419577858222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="7">
+        <v>7</v>
+      </c>
+      <c r="B31" s="7">
+        <v>45.160226180119956</v>
+      </c>
+      <c r="C31" s="7">
+        <v>-0.16022618011992762</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="7">
+        <v>8</v>
+      </c>
+      <c r="B32" s="7">
+        <v>42.100819559543979</v>
+      </c>
+      <c r="C32" s="7">
+        <v>-2.1008195595439787</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="7">
+        <v>9</v>
+      </c>
+      <c r="B33" s="7">
+        <v>45.500160249072842</v>
+      </c>
+      <c r="C33" s="7">
+        <v>-5.5001602490728416</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="7">
+        <v>10</v>
+      </c>
+      <c r="B34" s="7">
+        <v>40.741083283732429</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2.2589167162675707</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="7">
+        <v>11</v>
+      </c>
+      <c r="B35" s="7">
+        <v>44.820292111167063</v>
+      </c>
+      <c r="C35" s="7">
+        <v>2.1797078888329366</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="7">
+        <v>12</v>
+      </c>
+      <c r="B36" s="7">
+        <v>47.879698731743048</v>
+      </c>
+      <c r="C36" s="7">
+        <v>-5.8796987317430478</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="7">
+        <v>13</v>
+      </c>
+      <c r="B37" s="7">
+        <v>46.519962455931505</v>
+      </c>
+      <c r="C37" s="7">
+        <v>3.4800375440684661</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="7">
+        <v>14</v>
+      </c>
+      <c r="B38" s="7">
+        <v>43.460555835355521</v>
+      </c>
+      <c r="C38" s="7">
+        <v>1.5394441646445074</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="7">
+        <v>15</v>
+      </c>
+      <c r="B39" s="7">
+        <v>44.140423973261292</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0.85957602673873623</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="7">
+        <v>16</v>
+      </c>
+      <c r="B40" s="7">
+        <v>42.78068769744975</v>
+      </c>
+      <c r="C40" s="7">
+        <v>-2.7806876974497499</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="7">
+        <v>17</v>
+      </c>
+      <c r="B41" s="7">
+        <v>39.38134700792088</v>
+      </c>
+      <c r="C41" s="7">
+        <v>6.6186529920791202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="7">
+        <v>18</v>
+      </c>
+      <c r="B42" s="7">
+        <v>39.041412938967994</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0.95858706103200575</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="7">
+        <v>19</v>
+      </c>
+      <c r="B43" s="7">
+        <v>41.760885490591093</v>
+      </c>
+      <c r="C43" s="7">
+        <v>-6.7608854905911215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="7">
+        <v>20</v>
+      </c>
+      <c r="B44" s="7">
+        <v>44.820292111167063</v>
+      </c>
+      <c r="C44" s="7">
+        <v>13.179707888832937</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="7">
+        <v>21</v>
+      </c>
+      <c r="B45" s="7">
+        <v>45.160226180119956</v>
+      </c>
+      <c r="C45" s="7">
+        <v>-2.160226180119956</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="7">
+        <v>22</v>
+      </c>
+      <c r="B46" s="7">
+        <v>41.420951421638208</v>
+      </c>
+      <c r="C46" s="7">
+        <v>-1.4209514216381791</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="7">
+        <v>23</v>
+      </c>
+      <c r="B47" s="7">
+        <v>43.460555835355521</v>
+      </c>
+      <c r="C47" s="7">
+        <v>4.539444164644479</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="7">
+        <v>24</v>
+      </c>
+      <c r="B48" s="7">
+        <v>39.041412938967994</v>
+      </c>
+      <c r="C48" s="7">
+        <v>-6.0414129389679943</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="7">
+        <v>25</v>
+      </c>
+      <c r="B49" s="7">
+        <v>38.021610732109338</v>
+      </c>
+      <c r="C49" s="7">
+        <v>-3.0216107321093375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="7">
+        <v>26</v>
+      </c>
+      <c r="B50" s="7">
+        <v>43.120621766402635</v>
+      </c>
+      <c r="C50" s="7">
+        <v>6.8793782335973646</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="7">
+        <v>27</v>
+      </c>
+      <c r="B51" s="7">
+        <v>43.460555835355521</v>
+      </c>
+      <c r="C51" s="7">
+        <v>3.539444164644479</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="7">
+        <v>28</v>
+      </c>
+      <c r="B52" s="7">
+        <v>44.480358042214178</v>
+      </c>
+      <c r="C52" s="7">
+        <v>5.5196419577858222</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="7">
+        <v>29</v>
+      </c>
+      <c r="B53" s="7">
+        <v>41.420951421638208</v>
+      </c>
+      <c r="C53" s="7">
+        <v>-1.4209514216382075</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" s="7">
+        <v>30</v>
+      </c>
+      <c r="B54" s="7">
+        <v>44.820292111167063</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0.17970788883290822</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="8">
+        <v>31</v>
+      </c>
+      <c r="B55" s="8">
+        <v>43.120621766402635</v>
+      </c>
+      <c r="C55" s="8">
+        <v>1.8793782335973646</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AE34"/>
+  <dimension ref="A1:AE42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="P45" sqref="L36:P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2307,16 +4025,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
+    </row>
+    <row r="42" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L42" s="11"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE32">
